--- a/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A1034-59AF-4B3E-8BCF-B6466DA4387B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7555CAC-2153-4556-8619-27285DA32BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -777,11 +777,6 @@
     <t>https://water.utah.gov/</t>
   </si>
   <si>
-    <t>Groundwater,
-Surface Water,
-Groundwater, Surface Water</t>
-  </si>
-  <si>
     <t>Unspecified</t>
   </si>
   <si>
@@ -831,6 +826,11 @@
   </si>
   <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Utah</t>
+  </si>
+  <si>
+    <t>Groundwater,
+Surface Water,
+Surface and Groundwater</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>11</v>
@@ -3149,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3253,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3381,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>11</v>
@@ -3413,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -3445,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>11</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -3963,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4191,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
@@ -4257,7 +4257,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>11</v>
@@ -4289,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>11</v>
@@ -4322,7 +4322,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>11</v>
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>11</v>
@@ -4828,7 +4828,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>11</v>
@@ -4860,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>11</v>
@@ -4924,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>11</v>
@@ -4956,7 +4956,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>11</v>

--- a/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7555CAC-2153-4556-8619-27285DA32BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080990A-C91E-4453-A5A9-8EFDF1923B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -741,11 +741,6 @@
 WaterYear</t>
   </si>
   <si>
-    <t>Consumptive Use, Irrigation;
-Withdrawal, Irrigation;
-Withdrawal, Public Supply</t>
-  </si>
-  <si>
     <t>UT_Consumptive Use,
 UT_Withdrawal Irrigation,
 UT_Withdrawal Public Supply</t>
@@ -831,6 +826,11 @@
     <t>Groundwater,
 Surface Water,
 Surface and Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use Irrigation;
+Withdrawal Irrigation;
+Withdrawal Public Supply</t>
   </si>
 </sst>
 </file>
@@ -2312,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
@@ -2666,7 +2666,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
@@ -2698,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>11</v>
@@ -2833,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2865,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>11</v>
@@ -2897,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>11</v>
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>11</v>
@@ -2961,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>11</v>
@@ -2993,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>11</v>
@@ -3057,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>11</v>
@@ -3149,7 +3149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3253,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3381,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>11</v>
@@ -3413,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -3445,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>11</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4191,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
@@ -4224,7 +4224,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4257,7 +4257,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>11</v>
@@ -4289,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>11</v>
@@ -4322,7 +4322,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>11</v>
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>11</v>
@@ -4828,7 +4828,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>11</v>
@@ -4860,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>11</v>
@@ -4924,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>11</v>
@@ -4956,7 +4956,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>11</v>

--- a/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080990A-C91E-4453-A5A9-8EFDF1923B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C93D17-E275-431D-9412-97982A5ED7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
+    <sheet name="Notes" sheetId="11" r:id="rId8"/>
+    <sheet name="misc" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -701,56 +703,6 @@
     <t>Utah Division of Water Reserouces (UDWRe).</t>
   </si>
   <si>
-    <t>Consumptive Use Estimate,
-Withdrawal Volume Estimate</t>
-  </si>
-  <si>
-    <t>Surface/Ground,
-Surface/Ground</t>
-  </si>
-  <si>
-    <t>UT_Consumptive Use Estimate
-UT_Withdrawal Estimate</t>
-  </si>
-  <si>
-    <t>Estimate,
-Estimate</t>
-  </si>
-  <si>
-    <t>1,
-1</t>
-  </si>
-  <si>
-    <t>Year,
-Year</t>
-  </si>
-  <si>
-    <t>Average,
-Average</t>
-  </si>
-  <si>
-    <t>AFY,
-AFY</t>
-  </si>
-  <si>
-    <t>10,
-10</t>
-  </si>
-  <si>
-    <t>WaterYear,
-WaterYear</t>
-  </si>
-  <si>
-    <t>UT_Consumptive Use,
-UT_Withdrawal Irrigation,
-UT_Withdrawal Public Supply</t>
-  </si>
-  <si>
-    <t>Consumptive Use,
-Withdrawal,
-Withdrawal</t>
-  </si>
-  <si>
     <t>UDWRe</t>
   </si>
   <si>
@@ -784,15 +736,6 @@
     <t>*get WKT from shapefiles</t>
   </si>
   <si>
-    <t>ReportingUnitName from UTDRe</t>
-  </si>
-  <si>
-    <t>ReportingUnitNativeID from UTDRe</t>
-  </si>
-  <si>
-    <t>ReportingUnitTypeCV from UTDRe</t>
-  </si>
-  <si>
     <t>*get from methods.csv</t>
   </si>
   <si>
@@ -805,32 +748,142 @@
     <t>*get from watersource.csv</t>
   </si>
   <si>
-    <t>Amount from UDWRe</t>
-  </si>
-  <si>
-    <t>ReportYearCV from UDWRe</t>
-  </si>
-  <si>
-    <t>TimeframeEnd from UDWRe</t>
-  </si>
-  <si>
-    <t>TimeframeStart from UDWRe</t>
-  </si>
-  <si>
-    <t>USGSCategoryCV from UDWRe</t>
-  </si>
-  <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Utah</t>
   </si>
   <si>
-    <t>Groundwater,
-Surface Water,
-Surface and Groundwater</t>
+    <t>UTag_M!</t>
   </si>
   <si>
-    <t>Consumptive Use Irrigation;
-Withdrawal Irrigation;
-Withdrawal Public Supply</t>
+    <t>Surface Ground Water</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Estimate of groundwater &amp; surface water consumptive use and withdrawl water use in a given area.</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Benuse</t>
+  </si>
+  <si>
+    <t>WAterSource</t>
+  </si>
+  <si>
+    <t>Surface and Groundwater</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Municipal/Industrial</t>
+  </si>
+  <si>
+    <t>Consumptive Use
+Withdrawal</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>UTag_V + counter</t>
+  </si>
+  <si>
+    <t># "Fresh_SW_GW" : "Surface and Groundwater",</t>
+  </si>
+  <si>
+    <t># "Fresh_Groundwater" : "Groundwater",</t>
+  </si>
+  <si>
+    <t># "Fresh_Surface Water" : "Surface Water"</t>
+  </si>
+  <si>
+    <t>Use custom WaDE ID</t>
+  </si>
+  <si>
+    <t>UTag_O1</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Agriculture_Surface and Groundwater
+Consumptive Use_Annual_Agriculture_Surface Water
+Withdrawal_Annual_Agriculture_Groundwater
+Withdrawal_Annual_Agriculture_Surface Water
+Withdrawal_Annual_Municipal/Industrial_Groundwater
+Withdrawal_Annual_Municipal/Industrial_Surface Water</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Agriculture_Surface and Groundwater",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use",</t>
+  </si>
+  <si>
+    <t>"WaterYear",</t>
+  </si>
+  <si>
+    <t>"10",</t>
+  </si>
+  <si>
+    <t>"AFY",</t>
+  </si>
+  <si>
+    <t>"Average",</t>
+  </si>
+  <si>
+    <t>"1",</t>
+  </si>
+  <si>
+    <t>"UTag_V1",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Agriculture_Surface Water",</t>
+  </si>
+  <si>
+    <t>"UTag_V2",</t>
+  </si>
+  <si>
+    <t>"Withdrawal_Annual_Agriculture_Groundwater",</t>
+  </si>
+  <si>
+    <t>"Withdrawal",</t>
+  </si>
+  <si>
+    <t>"UTag_V3",</t>
+  </si>
+  <si>
+    <t>"Withdrawal_Annual_Agriculture_Surface Water",</t>
+  </si>
+  <si>
+    <t>"UTag_V4",</t>
+  </si>
+  <si>
+    <t>"Withdrawal_Annual_Municipal/Industrial_Groundwater",</t>
+  </si>
+  <si>
+    <t>"UTag_V5",</t>
+  </si>
+  <si>
+    <t>"Withdrawal_Annual_Municipal/Industrial_Surface Water",</t>
+  </si>
+  <si>
+    <t>"UTag_V6",</t>
+  </si>
+  <si>
+    <t>UTWBD11102020</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1511,6 +1564,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1923,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,7 +2070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2059,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>11</v>
@@ -2173,7 +2230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
@@ -2187,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -2203,7 +2260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
@@ -2216,9 +2273,7 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>220</v>
-      </c>
+      <c r="E10" s="28"/>
       <c r="F10" s="85" t="s">
         <v>11</v>
       </c>
@@ -2267,7 +2322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -2281,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F12" s="85" t="s">
         <v>11</v>
@@ -2312,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,7 +2377,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2396,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2410,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
@@ -2428,7 +2483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -2441,8 +2496,8 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>224</v>
+      <c r="E5" s="28">
+        <v>1</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>11</v>
@@ -2460,7 +2515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -2474,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>11</v>
@@ -2492,7 +2547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -2506,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>11</v>
@@ -2524,7 +2579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
@@ -2538,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -2556,7 +2611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2570,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>11</v>
@@ -2588,7 +2643,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>145</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>11</v>
@@ -2620,7 +2675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>148</v>
       </c>
@@ -2634,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>11</v>
@@ -2652,7 +2707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
@@ -2666,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
@@ -2684,7 +2739,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -2729,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2865,7 +2920,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>11</v>
@@ -2897,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>11</v>
@@ -2929,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>11</v>
@@ -2961,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>11</v>
@@ -2993,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -3025,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>11</v>
@@ -3057,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>11</v>
@@ -3149,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3253,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3381,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>11</v>
@@ -3413,7 +3468,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>11</v>
@@ -3431,7 +3486,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>194</v>
       </c>
@@ -3445,13 +3500,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="85" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="G10" s="35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H10" s="93" t="s">
         <v>11</v>
@@ -3487,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3591,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3622,8 +3677,8 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="73" t="s">
-        <v>102</v>
+      <c r="E5" s="73">
+        <v>4326</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>11</v>
@@ -3655,7 +3710,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3687,13 +3742,13 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H7" s="93" t="s">
         <v>11</v>
@@ -3719,13 +3774,13 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="26" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H8" s="93" t="s">
         <v>11</v>
@@ -3783,13 +3838,13 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H10" s="93" t="s">
         <v>11</v>
@@ -3963,8 +4018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4191,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
@@ -4224,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4257,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>11</v>
@@ -4289,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>11</v>
@@ -4322,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>11</v>
@@ -4384,13 +4439,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4416,13 +4471,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>11</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -4541,8 +4596,8 @@
       <c r="D20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="85" t="s">
-        <v>217</v>
+      <c r="E20" s="108">
+        <v>44601</v>
       </c>
       <c r="F20" s="85" t="s">
         <v>11</v>
@@ -4828,7 +4883,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>11</v>
@@ -4860,13 +4915,13 @@
         <v>15</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4924,13 +4979,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="85" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>11</v>
@@ -4956,13 +5011,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="85" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>11</v>
@@ -54196,4 +54251,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CCB7F6-4383-4929-B095-328564C87DFC}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E7B3A-16BD-447A-9337-F79F86C27432}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A12">
+    <sortCondition ref="A6:A12"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C93D17-E275-431D-9412-97982A5ED7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684834D-E6AF-4C47-9991-8FFBD88EBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -885,6 +885,9 @@
   <si>
     <t>UTWBD11102020</t>
   </si>
+  <si>
+    <t>Issue of ReportingUnitTypeCV = ‘Subarea' provided ReportingUnitNativeID’s keep being read in as date datavalues.  Will have to temp fix and assign a custom ID value for this areas &amp; timeseries.</t>
+  </si>
 </sst>
 </file>
 
@@ -1251,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,22 +1370,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1400,7 +1394,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,43 +1415,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1476,10 +1440,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1526,9 +1487,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1886,20 +1844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="83" t="s">
         <v>211</v>
       </c>
       <c r="B1" t="s">
@@ -1907,7 +1865,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="83" t="s">
         <v>212</v>
       </c>
       <c r="B2" t="s">
@@ -1915,60 +1873,65 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="102"/>
-      <c r="C7" s="101"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="86"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="101"/>
+      <c r="C8" s="86"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="86"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,10 +1963,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2016,7 +1979,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2048,22 +2011,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="67" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="68">
         <v>11</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2083,19 +2046,19 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="69" t="s">
         <v>236</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="70" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="68" t="s">
         <v>106</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2112,13 +2075,13 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2127,7 +2090,7 @@
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="68" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2147,10 +2110,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2159,7 +2122,7 @@
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="72">
         <v>0.5</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2179,10 +2142,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -2191,7 +2154,7 @@
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2208,13 +2171,13 @@
       <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2223,7 +2186,7 @@
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2246,7 +2209,7 @@
       <c r="E9" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2274,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -2283,7 +2246,7 @@
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="68" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2303,10 +2266,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -2315,7 +2278,7 @@
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="68" t="s">
         <v>124</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2332,13 +2295,13 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -2347,7 +2310,7 @@
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="68" t="s">
         <v>127</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2403,7 +2366,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2435,16 +2398,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="87"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="68">
         <v>16</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2464,10 +2427,10 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2476,7 +2439,7 @@
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="68" t="s">
         <v>129</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2502,13 +2465,13 @@
       <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="68">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2525,7 +2488,7 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -2534,13 +2497,13 @@
       <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="68" t="s">
         <v>134</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2557,7 +2520,7 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -2566,13 +2529,13 @@
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="68" t="s">
         <v>137</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2589,7 +2552,7 @@
       <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -2598,13 +2561,13 @@
       <c r="F8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="68" t="s">
         <v>140</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2621,7 +2584,7 @@
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -2630,13 +2593,13 @@
       <c r="F9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="68" t="s">
         <v>143</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2656,19 +2619,19 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="82" t="s">
         <v>258</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="68">
         <v>10</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2685,7 +2648,7 @@
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -2694,13 +2657,13 @@
       <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="68" t="s">
         <v>149</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2717,22 +2680,22 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="88" t="s">
         <v>249</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="68" t="s">
         <v>152</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2749,7 +2712,7 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -2758,13 +2721,13 @@
       <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="68" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -2784,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2820,7 +2783,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2852,16 +2815,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="75" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2887,13 +2850,13 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>256</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="70" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -2919,10 +2882,10 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2951,10 +2914,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2983,10 +2946,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -3015,10 +2978,10 @@
       <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -3047,10 +3010,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -3079,10 +3042,10 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -3111,10 +3074,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -3146,7 +3109,7 @@
       <c r="E12" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -3272,22 +3235,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="68">
         <v>34658</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -3313,13 +3276,13 @@
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="68" t="s">
         <v>182</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3342,16 +3305,16 @@
       <c r="E5" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3374,16 +3337,16 @@
       <c r="E6" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -3400,22 +3363,22 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="68" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -3438,16 +3401,16 @@
       <c r="E8" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="68" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3470,16 +3433,16 @@
       <c r="E9" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="68">
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -3508,10 +3471,10 @@
       <c r="G10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="68" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3540,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,14 +3524,14 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3600,17 +3563,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3622,17 +3585,17 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -3654,19 +3617,17 @@
       <c r="G4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
@@ -3677,7 +3638,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="73">
+      <c r="E5" s="60">
         <v>4326</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -3686,19 +3647,17 @@
       <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="60" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3718,19 +3677,17 @@
       <c r="G6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="62" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>52</v>
       </c>
@@ -3750,19 +3707,17 @@
       <c r="G7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="58" t="s">
         <v>98</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3782,19 +3737,17 @@
       <c r="G8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="58">
         <v>48001</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
@@ -3814,19 +3767,17 @@
       <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>54</v>
       </c>
@@ -3846,19 +3797,17 @@
       <c r="G10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
@@ -3878,19 +3827,17 @@
       <c r="G11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
@@ -3910,98 +3857,61 @@
       <c r="G12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="58" t="s">
         <v>101</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="44"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="44"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="44"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="41"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
     </row>
@@ -4038,32 +3948,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -4077,16 +3987,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
@@ -4098,21 +4008,21 @@
       <c r="I3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19"/>
@@ -4124,21 +4034,21 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="19"/>
@@ -4150,21 +4060,21 @@
       <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="46" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
@@ -4176,21 +4086,21 @@
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19"/>
@@ -4202,21 +4112,21 @@
       <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="46" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19"/>
@@ -4228,24 +4138,24 @@
       <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="89" t="s">
         <v>231</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -4266,19 +4176,19 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="88" t="s">
         <v>220</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -4299,16 +4209,16 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -4331,16 +4241,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -4364,25 +4274,25 @@
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -4408,10 +4318,10 @@
       <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
@@ -4423,7 +4333,7 @@
       <c r="I14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4438,7 +4348,7 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -4453,7 +4363,7 @@
       <c r="I15" s="27">
         <v>125483.1563</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4470,7 +4380,7 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -4483,7 +4393,7 @@
       <c r="I16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="46" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4500,10 +4410,10 @@
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
@@ -4515,7 +4425,7 @@
       <c r="I17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="46" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4529,13 +4439,13 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -4547,7 +4457,7 @@
       <c r="I18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="46" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4561,13 +4471,13 @@
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="35" t="s">
@@ -4579,7 +4489,7 @@
       <c r="I19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="46" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4593,13 +4503,13 @@
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="93">
         <v>44601</v>
       </c>
-      <c r="F20" s="85" t="s">
+      <c r="F20" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="35" t="s">
@@ -4611,7 +4521,7 @@
       <c r="I20" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="46" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4625,13 +4535,13 @@
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="35" t="s">
@@ -4643,7 +4553,7 @@
       <c r="I21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="46" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4660,10 +4570,10 @@
       <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="85" t="s">
+      <c r="F22" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
@@ -4675,7 +4585,7 @@
       <c r="I22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="46" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4692,10 +4602,10 @@
       <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="35" t="s">
@@ -4707,7 +4617,7 @@
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="46" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4724,10 +4634,10 @@
       <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="35" t="s">
@@ -4739,7 +4649,7 @@
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="46" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4753,13 +4663,13 @@
       <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
@@ -4771,7 +4681,7 @@
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="46" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4788,10 +4698,10 @@
       <c r="D26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="35" t="s">
@@ -4803,7 +4713,7 @@
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="46" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4820,10 +4730,10 @@
       <c r="D27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="85" t="s">
+      <c r="F27" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="35" t="s">
@@ -4835,7 +4745,7 @@
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="46" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4849,13 +4759,13 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="85" t="s">
+      <c r="F28" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -4867,7 +4777,7 @@
       <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="49"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4879,10 +4789,10 @@
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="71" t="s">
         <v>227</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -4897,7 +4807,7 @@
       <c r="I29" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="46" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4911,10 +4821,10 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
@@ -4929,7 +4839,7 @@
       <c r="I30" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="46" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4943,13 +4853,13 @@
       <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="35" t="s">
@@ -4961,7 +4871,7 @@
       <c r="I31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4975,10 +4885,10 @@
       <c r="C32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="21" t="s">
@@ -4993,7 +4903,7 @@
       <c r="I32" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5007,10 +4917,10 @@
       <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -5025,25 +4935,25 @@
       <c r="I33" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I34" s="27"/>
-      <c r="J34" s="49"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="27"/>
-      <c r="J35" s="49"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I36" s="27"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I37" s="27"/>
-      <c r="J37" s="49"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I38" s="27"/>
@@ -5075,7 +4985,7 @@
     <row r="51" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52"/>
@@ -5123,12 +5033,12 @@
     <row r="66" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67" s="2"/>
-      <c r="D67" s="45"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68"/>
@@ -54294,16 +54204,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="92" t="s">
         <v>244</v>
       </c>
     </row>

--- a/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Utah/AggregatedAmounts/UT_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684834D-E6AF-4C47-9991-8FFBD88EBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB208F7C-A2BB-444B-96E0-8C24DE57C8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="277">
   <si>
     <t>Name</t>
   </si>
@@ -538,13 +538,7 @@
     <t>Name of the contact person</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Colorado</t>
-  </si>
-  <si>
-    <t>Link to where the organization data can be found.</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -718,9 +712,6 @@
     <t>801-538-7280</t>
   </si>
   <si>
-    <t>Water Planning</t>
-  </si>
-  <si>
     <t>https://water.utah.gov/</t>
   </si>
   <si>
@@ -746,9 +737,6 @@
   </si>
   <si>
     <t>*get from watersource.csv</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Utah</t>
   </si>
   <si>
     <t>UTag_M!</t>
@@ -887,6 +875,10 @@
   </si>
   <si>
     <t>Issue of ReportingUnitTypeCV = ‘Subarea' provided ReportingUnitNativeID’s keep being read in as date datavalues.  Will have to temp fix and assign a custom ID value for this areas &amp; timeseries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Utah Division of Water Resources is one of the divisions within the Department of Natural Resources. Tasked with planning, conserving, developing and protecting Utah’s water resources, the division earnestly strives to be Utah’s water steward.
+</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1858,26 +1850,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1905,16 +1897,16 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -2047,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2079,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>11</v>
@@ -2111,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="71" t="s">
         <v>11</v>
@@ -2143,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>11</v>
@@ -2175,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F8" s="71" t="s">
         <v>11</v>
@@ -2207,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F9" s="71" t="s">
         <v>11</v>
@@ -2267,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>11</v>
@@ -2299,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>11</v>
@@ -2428,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>11</v>
@@ -2492,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>11</v>
@@ -2620,7 +2612,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>11</v>
@@ -2684,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
@@ -2716,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>11</v>
@@ -2745,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2883,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>11</v>
@@ -2915,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F6" s="71" t="s">
         <v>11</v>
@@ -2933,9 +2925,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>30</v>
@@ -2946,8 +2938,8 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>235</v>
+      <c r="E7" s="90" t="s">
+        <v>221</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>11</v>
@@ -2959,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>168</v>
       </c>
@@ -2978,8 +2970,8 @@
       <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="90" t="s">
-        <v>223</v>
+      <c r="E8" s="79" t="s">
+        <v>222</v>
       </c>
       <c r="F8" s="71" t="s">
         <v>11</v>
@@ -2994,24 +2986,24 @@
         <v>169</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="F9" s="71" t="s">
         <v>11</v>
@@ -3023,27 +3015,27 @@
         <v>11</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="79" t="s">
-        <v>225</v>
+      <c r="E10" s="81" t="s">
+        <v>223</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>11</v>
@@ -3055,18 +3047,18 @@
         <v>11</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>11</v>
@@ -3074,8 +3066,8 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="81" t="s">
-        <v>226</v>
+      <c r="E11" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>11</v>
@@ -3087,43 +3079,14 @@
         <v>11</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>181</v>
-      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3146,20 +3109,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
-    <sortCondition ref="A5:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
+    <sortCondition ref="A5:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{0F9FA21D-FC7A-42A1-85D4-D9D86EC42C7D}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{F86DD44D-3EED-4B69-A980-DBC3430A44FE}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{3DE40E71-0DF2-4F41-88C2-5D0C794BB2F6}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{3DE40E71-0DF2-4F41-88C2-5D0C794BB2F6}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{0F9FA21D-FC7A-42A1-85D4-D9D86EC42C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3271,7 +3230,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3283,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>27</v>
@@ -3294,7 +3253,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -3303,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>11</v>
@@ -3323,7 +3282,7 @@
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>30</v>
@@ -3335,7 +3294,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="71" t="s">
         <v>11</v>
@@ -3350,12 +3309,12 @@
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>31</v>
@@ -3367,7 +3326,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>11</v>
@@ -3379,15 +3338,15 @@
         <v>11</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>30</v>
@@ -3399,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F8" s="71" t="s">
         <v>11</v>
@@ -3411,15 +3370,15 @@
         <v>11</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>30</v>
@@ -3431,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F9" s="71" t="s">
         <v>11</v>
@@ -3446,12 +3405,12 @@
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>31</v>
@@ -3466,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>18</v>
@@ -3478,7 +3437,7 @@
         <v>108</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3609,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3669,7 +3628,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3702,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>52</v>
@@ -3732,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>50</v>
@@ -3744,7 +3703,7 @@
         <v>48001</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -3759,7 +3718,7 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
@@ -3792,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>54</v>
@@ -3819,7 +3778,7 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>11</v>
@@ -3849,7 +3808,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>11</v>
@@ -3864,7 +3823,7 @@
         <v>101</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4035,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -4156,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
@@ -4168,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>21</v>
@@ -4189,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4201,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>23</v>
@@ -4222,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>11</v>
@@ -4234,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>95</v>
@@ -4254,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>11</v>
@@ -4266,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>25</v>
@@ -4287,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F13" s="91" t="s">
         <v>11</v>
@@ -4299,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>27</v>
@@ -4319,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>11</v>
@@ -4352,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>72</v>
@@ -4384,17 +4343,17 @@
         <v>11</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4411,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="71" t="s">
         <v>11</v>
@@ -4443,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>11</v>
@@ -4475,7 +4434,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F19" s="71" t="s">
         <v>11</v>
@@ -4519,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J20" s="46" t="s">
         <v>91</v>
@@ -4539,7 +4498,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F21" s="71" t="s">
         <v>11</v>
@@ -4571,7 +4530,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F22" s="71" t="s">
         <v>11</v>
@@ -4603,7 +4562,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F23" s="71" t="s">
         <v>11</v>
@@ -4635,7 +4594,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="71" t="s">
         <v>11</v>
@@ -4667,7 +4626,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F25" s="71" t="s">
         <v>11</v>
@@ -4699,7 +4658,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" s="71" t="s">
         <v>11</v>
@@ -4731,7 +4690,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F27" s="71" t="s">
         <v>11</v>
@@ -4763,7 +4722,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F28" s="71" t="s">
         <v>11</v>
@@ -4793,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>11</v>
@@ -4805,10 +4764,10 @@
         <v>11</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4828,7 +4787,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>70</v>
@@ -4837,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>71</v>
@@ -4857,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>11</v>
@@ -4892,7 +4851,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>104</v>
@@ -4901,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J32" s="46" t="s">
         <v>69</v>
@@ -4924,7 +4883,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>105</v>
@@ -4933,7 +4892,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J33" s="46" t="s">
         <v>68</v>
@@ -54175,17 +54134,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -54205,38 +54164,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -54246,176 +54205,176 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" t="s">
         <v>259</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>261</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>262</v>
-      </c>
-      <c r="E6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
         <v>260</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>261</v>
       </c>
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>264</v>
-      </c>
-      <c r="H7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" t="s">
         <v>261</v>
       </c>
-      <c r="D8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" t="s">
-        <v>265</v>
-      </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" t="s">
         <v>261</v>
       </c>
-      <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" t="s">
-        <v>265</v>
-      </c>
       <c r="I9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" t="s">
         <v>261</v>
       </c>
-      <c r="D10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H10" t="s">
-        <v>265</v>
-      </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" t="s">
         <v>261</v>
       </c>
-      <c r="D11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" t="s">
-        <v>265</v>
-      </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
